--- a/data/landings/cdfw/public/fish_bulletins/raw/fb170/raw/Table5.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb170/raw/Table5.xlsx
@@ -1,24 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/fb170/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camilavargaspoulsen/github/wc_climate_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb170/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452A3759-845D-DF45-BBFA-58608C93F79A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB9467E-8E00-7B42-A528-8183ED2ACAF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12180" yWindow="4700" windowWidth="27640" windowHeight="16940" xr2:uid="{93E02BBE-64BD-674B-B8D3-298062EF5257}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{93E02BBE-64BD-674B-B8D3-298062EF5257}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -45,9 +53,6 @@
     <t>16-20</t>
   </si>
   <si>
-    <t>21 25</t>
-  </si>
-  <si>
     <t>26-30</t>
   </si>
   <si>
@@ -148,6 +153,9 @@
   </si>
   <si>
     <t>Total check</t>
+  </si>
+  <si>
+    <t>21-25</t>
   </si>
 </sst>
 </file>
@@ -525,7 +533,7 @@
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -580,7 +588,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B5" s="2">
         <v>1322</v>
@@ -591,7 +599,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2">
         <v>884</v>
@@ -602,7 +610,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2">
         <v>716</v>
@@ -613,7 +621,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2">
         <v>916</v>
@@ -624,7 +632,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2">
         <v>472</v>
@@ -635,7 +643,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2">
         <v>343</v>
@@ -646,7 +654,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2">
         <v>157</v>
@@ -657,7 +665,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2">
         <v>162</v>
@@ -668,7 +676,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2">
         <v>133</v>
@@ -679,7 +687,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2">
         <v>45</v>
@@ -690,7 +698,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2">
         <v>42</v>
@@ -701,7 +709,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2">
         <v>37</v>
@@ -712,7 +720,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2">
         <v>20</v>
@@ -723,7 +731,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2">
         <v>13</v>
@@ -734,7 +742,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2">
         <v>8</v>
@@ -745,7 +753,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2">
         <v>6</v>
@@ -756,7 +764,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="2">
         <v>6</v>
@@ -767,7 +775,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2">
         <v>3</v>
@@ -778,7 +786,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2">
         <v>3</v>
@@ -789,7 +797,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2">
         <v>8</v>
@@ -800,7 +808,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="2">
         <v>4</v>
@@ -811,7 +819,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2">
         <v>1</v>
@@ -822,7 +830,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="2">
         <v>5</v>
@@ -833,7 +841,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="2">
         <v>9</v>
@@ -844,7 +852,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="2">
         <v>1</v>
@@ -855,7 +863,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="2">
         <v>0</v>
@@ -866,7 +874,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" s="2">
         <v>14</v>
@@ -877,7 +885,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="2">
         <v>3</v>
@@ -888,7 +896,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" s="2">
         <v>4</v>
@@ -899,7 +907,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" s="2">
         <v>3</v>
@@ -910,7 +918,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" s="2">
         <v>5</v>
@@ -921,7 +929,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" s="2">
         <v>1</v>
@@ -932,7 +940,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" s="2">
         <v>40</v>
@@ -943,7 +951,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" s="2">
         <v>6818</v>
@@ -954,7 +962,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" s="4">
         <f>SUM(B2:B37)-B38</f>
